--- a/summaries/trials/simulated_dataset/lineages.xlsx
+++ b/summaries/trials/simulated_dataset/lineages.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve">simulated_dataset|England_EPI_ISL_747519|simulated|20201211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.7</t>
+    <t xml:space="preserve">VSP9977</t>
   </si>
   <si>
     <t xml:space="preserve">simulated_dataset|SouthAfrica_HLS-UCT-GS-1396-KRISP|simulated|20201118</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.351</t>
+    <t xml:space="preserve">VSP9978</t>
   </si>
 </sst>
 </file>
